--- a/Jogos_do_Dia/2023-07-27_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-27_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -875,13 +875,13 @@
         <v>49</v>
       </c>
       <c r="G4">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="H4">
-        <v>5.8</v>
+        <v>7.35</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>10.34</v>
       </c>
       <c r="J4">
         <v>1.02</v>
@@ -896,10 +896,10 @@
         <v>4.68</v>
       </c>
       <c r="N4">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O4">
-        <v>2.27</v>
+        <v>2.55</v>
       </c>
       <c r="P4">
         <v>1.25</v>
@@ -923,10 +923,10 @@
         <v>4.78</v>
       </c>
       <c r="W4">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="X4">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="Y4">
         <v>1.69</v>
@@ -982,13 +982,13 @@
         <v>50</v>
       </c>
       <c r="G5">
-        <v>2.83</v>
+        <v>3.09</v>
       </c>
       <c r="H5">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="I5">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="J5">
         <v>1.06</v>
@@ -1003,10 +1003,10 @@
         <v>2.71</v>
       </c>
       <c r="N5">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="O5">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="P5">
         <v>1.51</v>
@@ -1030,10 +1030,10 @@
         <v>1.32</v>
       </c>
       <c r="W5">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Y5">
         <v>1.56</v>
